--- a/biology/Zoologie/Cephalotes_laminatus/Cephalotes_laminatus.xlsx
+++ b/biology/Zoologie/Cephalotes_laminatus/Cephalotes_laminatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes laminatus, est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes laminatus, est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native d'Amérique du Sud, de l'état brésilien du Pará à l'Est, jusqu'à l'Équateur et au Pérou à l'Ouest. Elle est également trouvée dans l'état du Veracruz au Mexique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native d'Amérique du Sud, de l'état brésilien du Pará à l'Est, jusqu'à l'Équateur et au Pérou à l'Ouest. Elle est également trouvée dans l'état du Veracruz au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste britannique Frederick Smith, en 1860.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
